--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_20_AllChartTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_20_AllChartTypes.xlsx
@@ -5,12 +5,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rd10660a018da44a9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bar Chart" sheetId="2" r:id="R6ea7e2862cb44e25"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line Chart" sheetId="3" r:id="Rf83b9ca0fe334336"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie Chart" sheetId="4" r:id="R9875fd0556dc4887"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter Chart" sheetId="5" r:id="R6279e5a062504892"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R99312513d755423d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bar Chart" sheetId="2" r:id="R636af7b12ac24007"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line Chart" sheetId="3" r:id="R01170110caac4a17"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie Chart" sheetId="4" r:id="Rff8ce09cf2e34c22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter Chart" sheetId="5" r:id="Rbb113abd33334044"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -374,7 +375,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb78a0241b33042dc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8eaa4a7e99b6459a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -409,7 +410,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R242c123211ef43c8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf9932a4d0c747de"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -444,7 +445,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4dc6485db72645ab"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c4a811f659c40c8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -479,7 +480,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60aae44594f1476b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd13d91dc269b4c4c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -546,27 +547,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1b243c895e1b4c54"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba3407c20de94dd4"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6e19252a4a28432d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf258f0443f014007"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b3a6c2151e542ea"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2629d8a14b7c4e5b"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2a37227fbdd45db"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89c9046f55ee4ed2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_20_AllChartTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_20_AllChartTypes.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R99312513d755423d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bar Chart" sheetId="2" r:id="R636af7b12ac24007"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line Chart" sheetId="3" r:id="R01170110caac4a17"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie Chart" sheetId="4" r:id="Rff8ce09cf2e34c22"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter Chart" sheetId="5" r:id="Rbb113abd33334044"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R29c3780643b64061"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bar Chart" sheetId="2" r:id="Rff59aab62a934932"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line Chart" sheetId="3" r:id="R5ef62688bba5442e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie Chart" sheetId="4" r:id="R0cfbe20f406d49f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter Chart" sheetId="5" r:id="Re1945003213e47d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -92,6 +92,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$6</c:f>
@@ -185,6 +188,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$6</c:f>
@@ -256,6 +266,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$6</c:f>
@@ -306,6 +319,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'Data'!$B$2:$B$6</c:f>
@@ -375,7 +391,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8eaa4a7e99b6459a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb13d07fc67b9406d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -410,7 +426,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf9932a4d0c747de"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e362bee8e3946bf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -445,7 +461,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c4a811f659c40c8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Radd6545a576745d7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -480,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd13d91dc269b4c4c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e162c57f41848d8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -547,27 +563,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba3407c20de94dd4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rce27072d6c014a07"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf258f0443f014007"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rafb4b29834214b29"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2629d8a14b7c4e5b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R011096c2547c4c17"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89c9046f55ee4ed2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9d571c5922634d7a"/>
 </x:worksheet>
 </file>